--- a/src/Pickles/MIL_pickles/Output/AN160_TestScript_Desktop_Analysis_Validation_UR.xlsx
+++ b/src/Pickles/MIL_pickles/Output/AN160_TestScript_Desktop_Analysis_Validation_UR.xlsx
@@ -14,8 +14,9 @@
     <x:sheet name="DISPLAYIMAGE" sheetId="7" r:id="rId7"/>
     <x:sheet name="MAGNIFYIMAGE" sheetId="8" r:id="rId8"/>
     <x:sheet name="REPOSITIONCARIESROI" sheetId="9" r:id="rId9"/>
-    <x:sheet name="SHOWPROGRESS" sheetId="10" r:id="rId10"/>
-    <x:sheet name="TOGGLEANNOTATIONVISIBILITY" sheetId="11" r:id="rId11"/>
+    <x:sheet name="SEEWHATSNEW" sheetId="10" r:id="rId10"/>
+    <x:sheet name="SHOWPROGRESS" sheetId="11" r:id="rId11"/>
+    <x:sheet name="TOGGLEANNOTATIONVISIBILITY" sheetId="12" r:id="rId12"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <x:si>
     <x:t>AddCariesROI</x:t>
   </x:si>
@@ -114,7 +115,7 @@
   <x:si>
     <x:t>As a dentist
 I want to view caries regions of interest on a bitewing image
-So that I can see where early stage decay is occuring</x:t>
+So that I can see where early stage decay is ocurring</x:t>
   </x:si>
   <x:si>
     <x:t>ROIIndicatorsAreDisplayed</x:t>
@@ -123,7 +124,7 @@
     <x:t>@UR003-1</x:t>
   </x:si>
   <x:si>
-    <x:t>the deteted caries ROIs are indicated</x:t>
+    <x:t>the detected caries ROIs are indicated</x:t>
   </x:si>
   <x:si>
     <x:t>ROIIndicatorsAreEasilyVisible</x:t>
@@ -232,6 +233,62 @@
   </x:si>
   <x:si>
     <x:t>the caries ROIs direction is flipped horizontally</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SeeWhatsNew</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@UR, @UR027, @DesktopOnly, @Analysis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>As a user
+I want to be made aware of new features 
+So that I know what's changed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SeeNewFeaturesOnStartup</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@UR027-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I have not dismissed the news for the version installed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I start AssistDent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the new features are displayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StopSeeingNewFeatures</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@UR027-2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I dismiss/request the new features are no longer displayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I restart AssistDent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AssistDent restarts</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the new features are not dismissed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SeeNewFeaturesAfterStartup</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@UR027-3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I have started AssistDent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I access the new features</x:t>
   </x:si>
   <x:si>
     <x:t>ShowProgress</x:t>
@@ -698,7 +755,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B10"/>
+  <x:dimension ref="A1:B11"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -706,7 +763,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
@@ -751,7 +808,12 @@
     </x:row>
     <x:row r="10" spans="1:2">
       <x:c r="B10" s="4" t="s">
-        <x:v>72</x:v>
+        <x:v>83</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:2">
+      <x:c r="B11" s="4" t="s">
+        <x:v>90</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -763,8 +825,9 @@
     <x:hyperlink ref="B6" location="'DISPLAYIMAGE'!A1" display="DisplayImage"/>
     <x:hyperlink ref="B7" location="'MAGNIFYIMAGE'!A1" display="MagnifyImage"/>
     <x:hyperlink ref="B8" location="'REPOSITIONCARIESROI'!A1" display="RepositionCariesROI"/>
-    <x:hyperlink ref="B9" location="'SHOWPROGRESS'!A1" display="ShowProgress"/>
-    <x:hyperlink ref="B10" location="'TOGGLEANNOTATIONVISIBILITY'!A1" display="ToggleAnnotationVisibility"/>
+    <x:hyperlink ref="B9" location="'SEEWHATSNEW'!A1" display="SeeWhatsNew"/>
+    <x:hyperlink ref="B10" location="'SHOWPROGRESS'!A1" display="ShowProgress"/>
+    <x:hyperlink ref="B11" location="'TOGGLEANNOTATIONVISIBILITY'!A1" display="ToggleAnnotationVisibility"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -1473,7 +1536,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D9"/>
+  <x:dimension ref="A1:D28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1513,7 +1576,7 @@
     <x:row r="7" spans="1:4"/>
     <x:row r="8" spans="1:4">
       <x:c r="C8" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>70</x:v>
@@ -1521,10 +1584,126 @@
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="C9" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="C10" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="B12" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="B13" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4"/>
+    <x:row r="15" spans="1:4">
+      <x:c r="C15" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="C16" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="C17" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="C18" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="C19" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="C20" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4">
+      <x:c r="C21" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="B23" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="B24" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4"/>
+    <x:row r="26" spans="1:4">
+      <x:c r="C26" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4">
+      <x:c r="C27" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4">
+      <x:c r="C28" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>72</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1541,6 +1720,74 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
+  <x:dimension ref="A1:D9"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:4">
+      <x:c r="A1" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
+      <x:c r="B2" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="B3" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="B5" s="1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="B6" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4"/>
+    <x:row r="8" spans="1:4">
+      <x:c r="C8" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="C9" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheetb.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
   <x:dimension ref="A1:D20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
@@ -1549,7 +1796,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -1557,17 +1804,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -1575,7 +1822,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -1600,7 +1847,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -1608,12 +1855,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
       <x:c r="B13" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
@@ -1621,7 +1868,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4"/>
@@ -1646,7 +1893,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
@@ -1654,7 +1901,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -1662,7 +1909,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
